--- a/src/attributions/attributions_saliency_traj_408.xlsx
+++ b/src/attributions/attributions_saliency_traj_408.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG6"/>
+  <dimension ref="A1:GG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1873507052659988</v>
+        <v>0.01190735399723053</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08454623073339462</v>
+        <v>0.3488459587097168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06923750787973404</v>
+        <v>0.03446622937917709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02260484360158443</v>
+        <v>0.1044684052467346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06790614873170853</v>
+        <v>0.1950882375240326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04440289735794067</v>
+        <v>0.2376260310411453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04589655250310898</v>
+        <v>0.3216951489448547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002243883674964309</v>
+        <v>0.03232410922646523</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0358949601650238</v>
+        <v>0.3695054948329926</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18089559674263</v>
+        <v>0.1152338460087776</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04928440600633621</v>
+        <v>0.1567512452602386</v>
       </c>
       <c r="L2" t="n">
-        <v>0.121314711868763</v>
+        <v>0.08804047107696533</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07132664322853088</v>
+        <v>0.2570171356201172</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03485507518053055</v>
+        <v>0.4800397157669067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05941216647624969</v>
+        <v>0.2833370566368103</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06241725385189056</v>
+        <v>0.03734236210584641</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02066773176193237</v>
+        <v>0.2144326269626617</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03877616301178932</v>
+        <v>0.2747200131416321</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008455062285065651</v>
+        <v>0.008618599735200405</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02636236697435379</v>
+        <v>0.1222328245639801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01571047492325306</v>
+        <v>0.01766063272953033</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04730677604675293</v>
+        <v>0.08420941978693008</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04549398645758629</v>
+        <v>0.04666256904602051</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03558788448572159</v>
+        <v>0.04028850421309471</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02061935141682625</v>
+        <v>0.06083012372255325</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0102668534964323</v>
+        <v>0.064788818359375</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.005248980596661568</v>
+        <v>0.01475559920072556</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03839551657438278</v>
+        <v>0.09175475686788559</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01098139956593513</v>
+        <v>0.2294254899024963</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01318906806409359</v>
+        <v>0.03292171284556389</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08829808235168457</v>
+        <v>0.01674710214138031</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05526725575327873</v>
+        <v>0.2663972973823547</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04403072968125343</v>
+        <v>0.08760030567646027</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.002694178372621536</v>
+        <v>0.02325086668133736</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02197792939841747</v>
+        <v>0.01113741844892502</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.004355756565928459</v>
+        <v>0.01369318924844265</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05269742757081985</v>
+        <v>0.01924444735050201</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.02945857495069504</v>
+        <v>0.03291217610239983</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00120617460925132</v>
+        <v>0.007591260597109795</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.002816241700202227</v>
+        <v>0.03453382104635239</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.008546591736376286</v>
+        <v>0.05631418898701668</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00744810001924634</v>
+        <v>0.08369661122560501</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.006923161447048187</v>
+        <v>0.02873104996979237</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0279078334569931</v>
+        <v>0.1811885833740234</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.008686050772666931</v>
+        <v>0.00908850971609354</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.08442582190036774</v>
+        <v>0.04979965090751648</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.003381220623850822</v>
+        <v>0.1559393256902695</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.07665807753801346</v>
+        <v>0.05534665286540985</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01165653206408024</v>
+        <v>0.01440198719501495</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.006023302674293518</v>
+        <v>0.01231607981026173</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.07294008135795593</v>
+        <v>0.2149161100387573</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01622935011982918</v>
+        <v>0.07825049757957458</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.01511664688587189</v>
+        <v>0.1877017915248871</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.01783580891788006</v>
+        <v>0.1794038414955139</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.05546418949961662</v>
+        <v>0.05291172116994858</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03464771062135696</v>
+        <v>0.009551368653774261</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.03992933034896851</v>
+        <v>0.06815171986818314</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01336367893964052</v>
+        <v>0.142340749502182</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.007425418589264154</v>
+        <v>0.229450985789299</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0371420718729496</v>
+        <v>0.02877992577850819</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.05487165227532387</v>
+        <v>0.1360237151384354</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.1046351045370102</v>
+        <v>0.2052839994430542</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.445746213197708e-05</v>
+        <v>0.02785542234778404</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01920985989272594</v>
+        <v>0.04993285611271858</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.02334954217076302</v>
+        <v>0.01347708143293858</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01138457097113132</v>
+        <v>0.01218343898653984</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01611913368105888</v>
+        <v>0.1380428820848465</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02659797109663486</v>
+        <v>0.07305559515953064</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01057448145002127</v>
+        <v>0.05378930270671844</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.009045431390404701</v>
+        <v>0.2209028154611588</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.02479547634720802</v>
+        <v>0.1175228431820869</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01045725308358669</v>
+        <v>0.00516776368021965</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.08175195008516312</v>
+        <v>0.01513251196593046</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.02748966589570045</v>
+        <v>0.112921766936779</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.02989401668310165</v>
+        <v>0.05084577947854996</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.008411519229412079</v>
+        <v>0.008857950568199158</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03301189839839935</v>
+        <v>0.1112204641103745</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.003547817002981901</v>
+        <v>0.1047546342015266</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00617701094597578</v>
+        <v>0.03243328630924225</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.02590423263609409</v>
+        <v>0.150716558098793</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02171805873513222</v>
+        <v>0.09562236070632935</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.04049921780824661</v>
+        <v>0.01087179966270924</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.06524030864238739</v>
+        <v>0.08644524216651917</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00694600073620677</v>
+        <v>0.01595222391188145</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.006389008834958076</v>
+        <v>0.01393509469926357</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01348858512938023</v>
+        <v>0.01033997535705566</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.004642283543944359</v>
+        <v>0.01955493539571762</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.003838650649413466</v>
+        <v>0.03410709649324417</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.007420688401907682</v>
+        <v>0.02193360403180122</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001262300764210522</v>
+        <v>0.07331828773021698</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02637703344225883</v>
+        <v>0.03765731304883957</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.004025533329695463</v>
+        <v>0.08038299530744553</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0008970367489382625</v>
+        <v>0.0464308001101017</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.01687359623610973</v>
+        <v>0.05009744688868523</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0178473386913538</v>
+        <v>0.01848739944398403</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.06630164384841919</v>
+        <v>0.007035217247903347</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.003165784757584333</v>
+        <v>0.04218287020921707</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.07456188648939133</v>
+        <v>0.01408366020768881</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01545466855168343</v>
+        <v>0.06618814915418625</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0372617244720459</v>
+        <v>0.01869319006800652</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.06398848444223404</v>
+        <v>0.08608897030353546</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01153644826263189</v>
+        <v>0.01318404264748096</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0003324572462588549</v>
+        <v>0.04896844178438187</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02435103990137577</v>
+        <v>0.02650985866785049</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.008564500138163567</v>
+        <v>0.02274208329617977</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0005760178901255131</v>
+        <v>0.02364440262317657</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00188553286716342</v>
+        <v>0.03098712116479874</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.003434767480939627</v>
+        <v>0.07885004580020905</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02311166748404503</v>
+        <v>0.04147079214453697</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.1199954003095627</v>
+        <v>0.1532569825649261</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.06258640438318253</v>
+        <v>0.04912613332271576</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01155723631381989</v>
+        <v>0.04714648425579071</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.04061233624815941</v>
+        <v>0.4100653529167175</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.001213826239109039</v>
+        <v>0.07869285345077515</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.04334525763988495</v>
+        <v>0.2179968059062958</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.04353735595941544</v>
+        <v>0.01453462988138199</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01957998424768448</v>
+        <v>0.08478544652462006</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.005234365817159414</v>
+        <v>0.03489373624324799</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.04641472175717354</v>
+        <v>0.002997148782014847</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01152120996266603</v>
+        <v>0.1116348952054977</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02720612473785877</v>
+        <v>0.09604014456272125</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02689050696790218</v>
+        <v>0.06635375320911407</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.01933887042105198</v>
+        <v>0.06533297151327133</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01889866031706333</v>
+        <v>0.09140722453594208</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.004777174908667803</v>
+        <v>0.08869897574186325</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.005404295399785042</v>
+        <v>0.103577733039856</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01441615633666515</v>
+        <v>0.01409260369837284</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.002682553371414542</v>
+        <v>0.09421345591545105</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.02386622875928879</v>
+        <v>0.09347048401832581</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.04612675309181213</v>
+        <v>0.03306389600038528</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.006522336974740028</v>
+        <v>0.0524568110704422</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.01087062899023294</v>
+        <v>0.08141627162694931</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.03953947871923447</v>
+        <v>0.05683377757668495</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.03776095807552338</v>
+        <v>0.1047883182764053</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.00814729742705822</v>
+        <v>0.09233859181404114</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.07427128404378891</v>
+        <v>0.03618938103318214</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0509413480758667</v>
+        <v>0.00167064368724823</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01028868369758129</v>
+        <v>0.01442330982536077</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.006875814869999886</v>
+        <v>0.1789011210203171</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02530732005834579</v>
+        <v>0.1668380200862885</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.04922236874699593</v>
+        <v>0.03357473760843277</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.001057315617799759</v>
+        <v>0.07964406162500381</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.05492169037461281</v>
+        <v>0.0512201339006424</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0009323406266048551</v>
+        <v>0.03514337912201881</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01843781769275665</v>
+        <v>0.03626089915633202</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.03457003459334373</v>
+        <v>0.06169478595256805</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.04692498967051506</v>
+        <v>0.005661085713654757</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.002363397041335702</v>
+        <v>0.1109533756971359</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01254344638437033</v>
+        <v>0.007327089086174965</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03416058793663979</v>
+        <v>0.03036436066031456</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02933191135525703</v>
+        <v>0.09485419094562531</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0219263955950737</v>
+        <v>0.07425947487354279</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.005581648554652929</v>
+        <v>0.04048393666744232</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.04056182503700256</v>
+        <v>0.04717907682061195</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.05766751244664192</v>
+        <v>0.09421554207801819</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01516847871243954</v>
+        <v>0.008209727704524994</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.007798720616847277</v>
+        <v>0.05515792965888977</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01887640170753002</v>
+        <v>0.009587079286575317</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.004888105671852827</v>
+        <v>0.06169139593839645</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0004822006449103355</v>
+        <v>0.07816561311483383</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01708541810512543</v>
+        <v>0.01158355455845594</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.009536435827612877</v>
+        <v>0.04802072048187256</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02950426749885082</v>
+        <v>0.05109360069036484</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.02895175851881504</v>
+        <v>0.06186333298683167</v>
       </c>
       <c r="FI2" t="n">
-        <v>8.395913755521178e-05</v>
+        <v>0.002200838178396225</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.001614014618098736</v>
+        <v>0.006861470639705658</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.03766852989792824</v>
+        <v>0.03615248203277588</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02426548488438129</v>
+        <v>0.01966219767928123</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.04037040844559669</v>
+        <v>0.0549294576048851</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.02426355518400669</v>
+        <v>0.1125282496213913</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.007165892980992794</v>
+        <v>0.04796082526445389</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02246328070759773</v>
+        <v>0.01067672111093998</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.05732714757323265</v>
+        <v>0.05317968502640724</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0473226010799408</v>
+        <v>0.01151658594608307</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.005169211886823177</v>
+        <v>0.1161595731973648</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00137018458917737</v>
+        <v>0.2447248101234436</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01128325145691633</v>
+        <v>0.2047241181135178</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.03799611330032349</v>
+        <v>0.08762088418006897</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.03649917989969254</v>
+        <v>0.07608505338430405</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.004249117337167263</v>
+        <v>0.04518121480941772</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02233352139592171</v>
+        <v>0.04422522336244583</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.06025049835443497</v>
+        <v>0.01852928102016449</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01140189357101917</v>
+        <v>0.02832689508795738</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.01243580412119627</v>
+        <v>0.07055473327636719</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.01677553728222847</v>
+        <v>0.05726753547787666</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.001718081883154809</v>
+        <v>0.06220478937029839</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0269881933927536</v>
+        <v>0.1138705983757973</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01500413566827774</v>
+        <v>0.1390234231948853</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0005991514772176743</v>
+        <v>0.1597185432910919</v>
       </c>
     </row>
     <row r="3">
@@ -2142,1709 +2142,8537 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.629910588264465</v>
+        <v>0.1620070189237595</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4355781376361847</v>
+        <v>3.762916803359985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006647089030593634</v>
+        <v>0.2214437127113342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1210492253303528</v>
+        <v>0.7831493020057678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4650983810424805</v>
+        <v>0.4010783433914185</v>
       </c>
       <c r="F4" t="n">
-        <v>1.659436225891113</v>
+        <v>0.2611935436725616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8521536588668823</v>
+        <v>0.2203761041164398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2610462307929993</v>
+        <v>0.8780397772789001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1981106996536255</v>
+        <v>0.003458131104707718</v>
       </c>
       <c r="J4" t="n">
-        <v>1.232510566711426</v>
+        <v>0.4590705335140228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1752824783325195</v>
+        <v>3.086766958236694</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4426299929618835</v>
+        <v>0.1347094029188156</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5707583427429199</v>
+        <v>1.639392971992493</v>
       </c>
       <c r="N4" t="n">
-        <v>1.248490452766418</v>
+        <v>0.1276790201663971</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8101680874824524</v>
+        <v>0.6177434325218201</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1447162181138992</v>
+        <v>0.0668046846985817</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3782792985439301</v>
+        <v>0.5993844866752625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5463823080062866</v>
+        <v>0.2091891467571259</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2561227977275848</v>
+        <v>0.05496717616915703</v>
       </c>
       <c r="T4" t="n">
-        <v>0.115597702562809</v>
+        <v>0.7449548244476318</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1950464844703674</v>
+        <v>0.003942172974348068</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04595479369163513</v>
+        <v>0.242769330739975</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0157400406897068</v>
+        <v>0.7599284052848816</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07062987983226776</v>
+        <v>0.5124219655990601</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4104548394680023</v>
+        <v>0.09751652181148529</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5310365557670593</v>
+        <v>0.005675312131643295</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06294198334217072</v>
+        <v>0.2538590133190155</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5064505934715271</v>
+        <v>0.210442066192627</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2259911298751831</v>
+        <v>0.7423786520957947</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2009578049182892</v>
+        <v>0.1835835427045822</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1776131242513657</v>
+        <v>0.04288995265960693</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.4981847703456879</v>
+        <v>0.1171429753303528</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.3674951195716858</v>
+        <v>0.4627545475959778</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4711066782474518</v>
+        <v>0.6521517038345337</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0157618336379528</v>
+        <v>0.261402040719986</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1125954911112785</v>
+        <v>0.2544838786125183</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3763741850852966</v>
+        <v>0.2861990332603455</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3080767095088959</v>
+        <v>0.1166533604264259</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0528927817940712</v>
+        <v>0.1313349157571793</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01694291830062866</v>
+        <v>0.3328830301761627</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.05498136579990387</v>
+        <v>0.1528265774250031</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.3108098804950714</v>
+        <v>0.08456439524888992</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.1485069841146469</v>
+        <v>0.1883654594421387</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.3953984379768372</v>
+        <v>0.1320786625146866</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1731710731983185</v>
+        <v>0.02067116647958755</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.857586681842804</v>
+        <v>0.01307011302560568</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5104700326919556</v>
+        <v>2.197206735610962</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09387101233005524</v>
+        <v>0.5691629648208618</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.112395390868187</v>
+        <v>0.09513527154922485</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1046108305454254</v>
+        <v>1.681023240089417</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.005632843822240829</v>
+        <v>0.2233370989561081</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9027040004730225</v>
+        <v>0.1066100001335144</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.04337237030267715</v>
+        <v>0.6916866898536682</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.2382899969816208</v>
+        <v>0.2534460723400116</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.7027111053466797</v>
+        <v>0.5001698732376099</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.2305769026279449</v>
+        <v>0.639136791229248</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.3842882812023163</v>
+        <v>0.5723777413368225</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.09993723034858704</v>
+        <v>0.09944753348827362</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2729678452014923</v>
+        <v>0.9666901826858521</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1047796756029129</v>
+        <v>0.1505236476659775</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.02639528922736645</v>
+        <v>0.2212389409542084</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.4235592782497406</v>
+        <v>0.0499262847006321</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.4576971530914307</v>
+        <v>0.3865130841732025</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1658137291669846</v>
+        <v>0.3901576995849609</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2376960813999176</v>
+        <v>0.3833950757980347</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3317213356494904</v>
+        <v>0.04773144423961639</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.183325782418251</v>
+        <v>0.799907922744751</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.4953132271766663</v>
+        <v>0.7753860354423523</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.150097444653511</v>
+        <v>0.5082931518554688</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1697610914707184</v>
+        <v>0.4275272190570831</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1098799780011177</v>
+        <v>0.1603851765394211</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1009365096688271</v>
+        <v>0.7328736186027527</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.3667038679122925</v>
+        <v>0.1397398263216019</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.3670408427715302</v>
+        <v>1.297323942184448</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.07586058974266052</v>
+        <v>0.3686472177505493</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.142969161272049</v>
+        <v>0.2849477231502533</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.7316163778305054</v>
+        <v>0.7274776101112366</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.5573422312736511</v>
+        <v>0.03450636565685272</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.455765426158905</v>
+        <v>0.2175848931074142</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.3017836511135101</v>
+        <v>0.2796549797058105</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.2691330909729004</v>
+        <v>0.1630615741014481</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.3705384135246277</v>
+        <v>4.088971763849258e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.06439568847417831</v>
+        <v>0.7468045353889465</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1283690631389618</v>
+        <v>0.0636548176407814</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.3101079761981964</v>
+        <v>0.02555029839277267</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.06771212816238403</v>
+        <v>0.1236432790756226</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.1177401170134544</v>
+        <v>0.0136375455185771</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.2099102735519409</v>
+        <v>0.1717660427093506</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1019899696111679</v>
+        <v>0.06939281523227692</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.02652765065431595</v>
+        <v>0.05420831963419914</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3611017167568207</v>
+        <v>0.7362917065620422</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.005682420916855335</v>
+        <v>0.3390935957431793</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.09684339910745621</v>
+        <v>0.2007688283920288</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.6250429749488831</v>
+        <v>1.016264677047729</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7491039633750916</v>
+        <v>0.7976371645927429</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.9044041633605957</v>
+        <v>1.139946460723877</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.4375350773334503</v>
+        <v>0.2143821716308594</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.4606012403964996</v>
+        <v>0.06978227943181992</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.4785588383674622</v>
+        <v>0.1677250564098358</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.3614437282085419</v>
+        <v>0.007824050262570381</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.1166546493768692</v>
+        <v>0.6828275322914124</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.09280405938625336</v>
+        <v>0.2280623912811279</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.3401424884796143</v>
+        <v>0.1210202053189278</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.04239213094115257</v>
+        <v>0.2840490341186523</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.1063483133912086</v>
+        <v>0.0008313045836985111</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.2068124264478683</v>
+        <v>0.175937682390213</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.07569834589958191</v>
+        <v>0.06684628129005432</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.1084673926234245</v>
+        <v>0.04676886275410652</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.06683570146560669</v>
+        <v>0.4724210500717163</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.696606457233429</v>
+        <v>0.5389456748962402</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.19155353307724</v>
+        <v>0.1175742745399475</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.2176614105701447</v>
+        <v>0.4882186949253082</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.04155429825186729</v>
+        <v>0.3456313014030457</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2813654243946075</v>
+        <v>0.2766629755496979</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.16762775182724</v>
+        <v>0.2048331201076508</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.4933069944381714</v>
+        <v>0.01830191165208817</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.3490227162837982</v>
+        <v>0.1105072945356369</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.05392012000083923</v>
+        <v>0.3037740588188171</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.3841816782951355</v>
+        <v>0.6432312726974487</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.2783859372138977</v>
+        <v>0.3374030292034149</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.5571464896202087</v>
+        <v>0.8477404117584229</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.3710239827632904</v>
+        <v>0.305814802646637</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.04617580026388168</v>
+        <v>0.199366420507431</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.1899114698171616</v>
+        <v>0.1979236304759979</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.1783065795898438</v>
+        <v>0.06747380644083023</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.1695185899734497</v>
+        <v>0.7065526843070984</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2779066264629364</v>
+        <v>0.001138556748628616</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.1753587573766708</v>
+        <v>0.157924696803093</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.05878874287009239</v>
+        <v>0.02821560204029083</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.209446519613266</v>
+        <v>0.3103061318397522</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2669692933559418</v>
+        <v>0.07710106670856476</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.2357497811317444</v>
+        <v>0.1111257374286652</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.125573992729187</v>
+        <v>0.0003032498061656952</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.3126435577869415</v>
+        <v>0.3554878830909729</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.459739089012146</v>
+        <v>0.1760763823986053</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.4519400894641876</v>
+        <v>0.08031053096055984</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.1312802135944366</v>
+        <v>0.4176374673843384</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01386360917240381</v>
+        <v>0.2654496133327484</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.229812890291214</v>
+        <v>0.03229328989982605</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.08842013776302338</v>
+        <v>0.1796676963567734</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.03534754738211632</v>
+        <v>0.1816015392541885</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.4666441380977631</v>
+        <v>0.1956726163625717</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6707003116607666</v>
+        <v>0.08919281512498856</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.06261871010065079</v>
+        <v>0.01161040738224983</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.4183889329433441</v>
+        <v>0.0305112898349762</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.2730212211608887</v>
+        <v>0.4712948799133301</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1289509534835815</v>
+        <v>0.4054784774780273</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.3764865398406982</v>
+        <v>0.9369372129440308</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.152166947722435</v>
+        <v>0.6080719828605652</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.3161718845367432</v>
+        <v>0.4531510174274445</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.4965338706970215</v>
+        <v>0.1240212023258209</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.1785825788974762</v>
+        <v>0.385138601064682</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.1509305834770203</v>
+        <v>0.146138072013855</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.3608362078666687</v>
+        <v>0.1054975688457489</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.1333122104406357</v>
+        <v>0.736358106136322</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.03884666413068771</v>
+        <v>0.04661235213279724</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.3440542817115784</v>
+        <v>0.04362296313047409</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.1557755768299103</v>
+        <v>0.2156704515218735</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.1188465654850006</v>
+        <v>0.07409423589706421</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1543924957513809</v>
+        <v>0.1413934677839279</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.02607193402945995</v>
+        <v>0.09035372734069824</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.07883968949317932</v>
+        <v>0.07036690413951874</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.3067274987697601</v>
+        <v>0.1282343566417694</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.3442967236042023</v>
+        <v>0.1442175805568695</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.180303692817688</v>
+        <v>0.4384155571460724</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.002109989523887634</v>
+        <v>0.2217673510313034</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.049412801861763</v>
+        <v>0.4129590690135956</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.3990516066551208</v>
+        <v>0.2691710293292999</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.3651005625724792</v>
+        <v>0.06788569688796997</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.230749174952507</v>
+        <v>0.01470822095870972</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.4361441135406494</v>
+        <v>0.6036493182182312</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.06651964783668518</v>
+        <v>0.4328391849994659</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.3494160175323486</v>
+        <v>0.05753817409276962</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.2933042049407959</v>
+        <v>0.4470478892326355</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.379627704620361</v>
+        <v>0.2029913663864136</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1839217841625214</v>
+        <v>0.006364285945892334</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.7304365038871765</v>
+        <v>0.304003894329071</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.4651753008365631</v>
+        <v>0.5502414703369141</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.09782084822654724</v>
+        <v>0.6821551322937012</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2265001982450485</v>
+        <v>0.3723915219306946</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.05799227952957153</v>
+        <v>0.4601988196372986</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.23232501745224</v>
+        <v>0.1186534464359283</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.1989313662052155</v>
+        <v>0.1237955465912819</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.003103719092905521</v>
+        <v>0.2754144668579102</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.1428225040435791</v>
+        <v>0.04801421612501144</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.1448724418878555</v>
+        <v>0.7095024585723877</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0672764778137207</v>
+        <v>0.5338696241378784</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01237611286342144</v>
+        <v>0.1243206933140755</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1723259389400482</v>
+        <v>0.1876660585403442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.798003151838202e-06</v>
+        <v>0.5419383645057678</v>
       </c>
       <c r="B5" t="n">
-        <v>2.238133674836718e-06</v>
+        <v>0.6243898868560791</v>
       </c>
       <c r="C5" t="n">
-        <v>3.296368049632292e-06</v>
+        <v>0.03574038296937943</v>
       </c>
       <c r="D5" t="n">
-        <v>1.134112380896113e-06</v>
+        <v>0.06997410207986832</v>
       </c>
       <c r="E5" t="n">
-        <v>4.952443305228371e-06</v>
+        <v>0.004989132285118103</v>
       </c>
       <c r="F5" t="n">
-        <v>5.934073669777717e-06</v>
+        <v>0.1425807029008865</v>
       </c>
       <c r="G5" t="n">
-        <v>1.467045763092756e-06</v>
+        <v>0.3413940072059631</v>
       </c>
       <c r="H5" t="n">
-        <v>3.436992074057343e-06</v>
+        <v>0.1315355151891708</v>
       </c>
       <c r="I5" t="n">
-        <v>1.339800201094477e-05</v>
+        <v>0.005553700961172581</v>
       </c>
       <c r="J5" t="n">
-        <v>3.79477000933548e-07</v>
+        <v>0.314675897359848</v>
       </c>
       <c r="K5" t="n">
-        <v>4.987237502973585e-07</v>
+        <v>0.5754919052124023</v>
       </c>
       <c r="L5" t="n">
-        <v>4.889544470643159e-06</v>
+        <v>0.04167283326387405</v>
       </c>
       <c r="M5" t="n">
-        <v>2.584507683422999e-07</v>
+        <v>0.2709552049636841</v>
       </c>
       <c r="N5" t="n">
-        <v>6.285884865064872e-06</v>
+        <v>0.2368346750736237</v>
       </c>
       <c r="O5" t="n">
-        <v>2.256276729895035e-06</v>
+        <v>0.1446159482002258</v>
       </c>
       <c r="P5" t="n">
-        <v>5.11275720782578e-06</v>
+        <v>0.1531666219234467</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.792838242588914e-06</v>
+        <v>0.341131329536438</v>
       </c>
       <c r="R5" t="n">
-        <v>1.257045369129628e-05</v>
+        <v>0.2715663909912109</v>
       </c>
       <c r="S5" t="n">
-        <v>1.751255240378669e-06</v>
+        <v>0.03951560705900192</v>
       </c>
       <c r="T5" t="n">
-        <v>1.032285794622112e-07</v>
+        <v>0.2455053627490997</v>
       </c>
       <c r="U5" t="n">
-        <v>6.6824918576458e-07</v>
+        <v>0.09178676456212997</v>
       </c>
       <c r="V5" t="n">
-        <v>1.487188683313434e-06</v>
+        <v>0.3014127016067505</v>
       </c>
       <c r="W5" t="n">
-        <v>3.701782702592027e-08</v>
+        <v>0.1415542215108871</v>
       </c>
       <c r="X5" t="n">
-        <v>1.277578689951042e-06</v>
+        <v>0.1011804193258286</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.226732587791048e-06</v>
+        <v>0.2543491721153259</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.477508931202465e-06</v>
+        <v>0.1734184175729752</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.134027792839333e-06</v>
+        <v>0.0770379900932312</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.442637878630194e-06</v>
+        <v>0.2659924328327179</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.061797886199201e-06</v>
+        <v>0.2570560574531555</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.941386002130457e-07</v>
+        <v>0.07309751957654953</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.726448431327299e-06</v>
+        <v>0.01587646454572678</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.588957042666152e-07</v>
+        <v>0.3114397525787354</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.733791805236251e-06</v>
+        <v>0.1427644789218903</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.413102942635305e-06</v>
+        <v>0.3929570317268372</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.565093725730549e-07</v>
+        <v>0.06528886407613754</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.472452251822688e-06</v>
+        <v>0.1634650081396103</v>
       </c>
       <c r="AK5" t="n">
-        <v>5.134091907166294e-07</v>
+        <v>0.1082360744476318</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.538485435048642e-06</v>
+        <v>0.1914803087711334</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.171539095907065e-07</v>
+        <v>0.03231505677103996</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.571225862397114e-08</v>
+        <v>0.05098620802164078</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.289765464207449e-06</v>
+        <v>0.257232129573822</v>
       </c>
       <c r="AP5" t="n">
-        <v>4.102836555830436e-06</v>
+        <v>0.07918782532215118</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.693144148859574e-07</v>
+        <v>0.0416901595890522</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.210526872659102e-07</v>
+        <v>0.03509893640875816</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.209206624887884e-07</v>
+        <v>0.04205165058374405</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.00832823793462e-06</v>
+        <v>0.0258149765431881</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.856087217485765e-07</v>
+        <v>0.3750711679458618</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.903123226540629e-06</v>
+        <v>0.1078360229730606</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.195571596530499e-06</v>
+        <v>0.1243695095181465</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.380486643640324e-06</v>
+        <v>0.3504052758216858</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.494913931310293e-06</v>
+        <v>0.001638278365135193</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.137277760994039e-06</v>
+        <v>0.1448125243186951</v>
       </c>
       <c r="BA5" t="n">
-        <v>3.82922507924377e-06</v>
+        <v>0.1483479142189026</v>
       </c>
       <c r="BB5" t="n">
-        <v>6.959113761695335e-06</v>
+        <v>0.1844871640205383</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.078490751955542e-06</v>
+        <v>0.1199553906917572</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.548541488067713e-06</v>
+        <v>0.0117451511323452</v>
       </c>
       <c r="BE5" t="n">
-        <v>9.74327804215136e-07</v>
+        <v>0.06290213018655777</v>
       </c>
       <c r="BF5" t="n">
-        <v>6.480557317445346e-07</v>
+        <v>0.09295978397130966</v>
       </c>
       <c r="BG5" t="n">
-        <v>7.400977210636484e-06</v>
+        <v>0.3045215606689453</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.233230816273135e-06</v>
+        <v>0.006328165531158447</v>
       </c>
       <c r="BI5" t="n">
-        <v>6.375439056682808e-07</v>
+        <v>0.3757336735725403</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.304012696185964e-06</v>
+        <v>0.1440015733242035</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.688144715852104e-06</v>
+        <v>0.006101921666413546</v>
       </c>
       <c r="BL5" t="n">
-        <v>4.776868536282564e-07</v>
+        <v>0.120269201695919</v>
       </c>
       <c r="BM5" t="n">
-        <v>3.362269126228057e-06</v>
+        <v>0.2707152366638184</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.555248329372262e-06</v>
+        <v>0.1418120115995407</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.433213867585437e-07</v>
+        <v>0.02193598076701164</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.89262220828823e-06</v>
+        <v>0.2999657988548279</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.085313781208242e-06</v>
+        <v>0.2005362510681152</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.952418185486749e-07</v>
+        <v>0.07834604382514954</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.08666552023351e-06</v>
+        <v>0.1446557641029358</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.529588411765872e-06</v>
+        <v>0.1519208252429962</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.789833390830609e-06</v>
+        <v>0.03369829803705215</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.685329266365443e-06</v>
+        <v>0.3104302287101746</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.947949499481183e-07</v>
+        <v>0.06428740173578262</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.405166585755069e-06</v>
+        <v>0.1029354631900787</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.948637186113046e-06</v>
+        <v>0.06183318793773651</v>
       </c>
       <c r="BZ5" t="n">
-        <v>9.823046411838732e-07</v>
+        <v>0.0183496605604887</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.88311764759419e-06</v>
+        <v>0.02404500544071198</v>
       </c>
       <c r="CB5" t="n">
-        <v>6.058246071916074e-06</v>
+        <v>0.1266270875930786</v>
       </c>
       <c r="CC5" t="n">
-        <v>4.892498054687167e-06</v>
+        <v>0.04390780255198479</v>
       </c>
       <c r="CD5" t="n">
-        <v>5.709125616704114e-08</v>
+        <v>0.08030415326356888</v>
       </c>
       <c r="CE5" t="n">
-        <v>6.285156359808752e-07</v>
+        <v>0.1195132657885551</v>
       </c>
       <c r="CF5" t="n">
-        <v>6.345420615616604e-07</v>
+        <v>0.03976990282535553</v>
       </c>
       <c r="CG5" t="n">
-        <v>2.296877141816367e-07</v>
+        <v>0.09820593893527985</v>
       </c>
       <c r="CH5" t="n">
-        <v>5.248716092864925e-07</v>
+        <v>0.03328153491020203</v>
       </c>
       <c r="CI5" t="n">
-        <v>5.566387812905305e-07</v>
+        <v>0.08718419820070267</v>
       </c>
       <c r="CJ5" t="n">
-        <v>8.811953762233316e-07</v>
+        <v>0.07053370773792267</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.796859805835993e-06</v>
+        <v>0.04296132177114487</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.335734737040184e-06</v>
+        <v>0.04797929525375366</v>
       </c>
       <c r="CM5" t="n">
-        <v>3.471985110081732e-06</v>
+        <v>0.222085103392601</v>
       </c>
       <c r="CN5" t="n">
-        <v>3.82762834760797e-07</v>
+        <v>0.0945337787270546</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.929477946305269e-07</v>
+        <v>0.02990000694990158</v>
       </c>
       <c r="CP5" t="n">
-        <v>7.002889219620556e-07</v>
+        <v>0.05131715908646584</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.332829808437964e-06</v>
+        <v>0.1014048159122467</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.212865865658387e-06</v>
+        <v>0.06326445192098618</v>
       </c>
       <c r="CS5" t="n">
-        <v>2.093205921482877e-06</v>
+        <v>0.05196261778473854</v>
       </c>
       <c r="CT5" t="n">
-        <v>2.241517904622015e-06</v>
+        <v>0.04195091128349304</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.321313331776764e-06</v>
+        <v>0.1412139683961868</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.177115672770014e-07</v>
+        <v>0.06025717407464981</v>
       </c>
       <c r="CW5" t="n">
-        <v>5.964638489786012e-07</v>
+        <v>0.1479386240243912</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.724824241795432e-07</v>
+        <v>0.05910946801304817</v>
       </c>
       <c r="CY5" t="n">
-        <v>7.133541402026822e-08</v>
+        <v>0.06426917016506195</v>
       </c>
       <c r="CZ5" t="n">
-        <v>7.759617233205063e-07</v>
+        <v>0.04282328858971596</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.326226083619986e-06</v>
+        <v>0.0872637927532196</v>
       </c>
       <c r="DB5" t="n">
-        <v>6.383741606441617e-07</v>
+        <v>0.06452436745166779</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.953522314579459e-06</v>
+        <v>0.1181994080543518</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.923171339512919e-06</v>
+        <v>0.05633803084492683</v>
       </c>
       <c r="DE5" t="n">
-        <v>2.818831490003504e-06</v>
+        <v>0.1843642741441727</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.673344508570153e-07</v>
+        <v>0.09762720018625259</v>
       </c>
       <c r="DG5" t="n">
-        <v>7.789393748680595e-06</v>
+        <v>0.1148952171206474</v>
       </c>
       <c r="DH5" t="n">
-        <v>1.746584416650876e-06</v>
+        <v>0.3652323186397552</v>
       </c>
       <c r="DI5" t="n">
-        <v>3.535895302775316e-06</v>
+        <v>0.3252556324005127</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.014039389701793e-05</v>
+        <v>0.1913900077342987</v>
       </c>
       <c r="DK5" t="n">
-        <v>5.10784775542561e-06</v>
+        <v>0.009174719452857971</v>
       </c>
       <c r="DL5" t="n">
-        <v>4.105292646272574e-06</v>
+        <v>0.06296899914741516</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.038863956637215e-06</v>
+        <v>0.5047820210456848</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.018970465338498e-06</v>
+        <v>0.06351166218519211</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.967437356142909e-06</v>
+        <v>0.06296582520008087</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.049692506669089e-06</v>
+        <v>0.08480576425790787</v>
       </c>
       <c r="DQ5" t="n">
-        <v>8.173037713277154e-08</v>
+        <v>0.1941324174404144</v>
       </c>
       <c r="DR5" t="n">
-        <v>4.114155672141351e-06</v>
+        <v>0.06963670253753662</v>
       </c>
       <c r="DS5" t="n">
-        <v>8.913002602639608e-07</v>
+        <v>0.3199929893016815</v>
       </c>
       <c r="DT5" t="n">
-        <v>3.15364189873435e-07</v>
+        <v>0.2617573738098145</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.233207854056673e-06</v>
+        <v>0.1514696776866913</v>
       </c>
       <c r="DV5" t="n">
-        <v>1.873012706710142e-06</v>
+        <v>0.1484633982181549</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.506506461941171e-06</v>
+        <v>0.008908037096261978</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.001442680921173e-06</v>
+        <v>0.02167093008756638</v>
       </c>
       <c r="DY5" t="n">
-        <v>8.385667342736269e-07</v>
+        <v>0.009949319064617157</v>
       </c>
       <c r="DZ5" t="n">
-        <v>5.247957233223133e-07</v>
+        <v>0.0858849436044693</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.50582229707652e-06</v>
+        <v>0.08908959478139877</v>
       </c>
       <c r="EB5" t="n">
-        <v>6.744404004166427e-07</v>
+        <v>0.2841821312904358</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.710466108306719e-06</v>
+        <v>0.07695171236991882</v>
       </c>
       <c r="ED5" t="n">
-        <v>8.927656836021924e-08</v>
+        <v>0.3089238405227661</v>
       </c>
       <c r="EE5" t="n">
-        <v>6.079188210605935e-07</v>
+        <v>0.1021168157458305</v>
       </c>
       <c r="EF5" t="n">
-        <v>6.69938685859961e-07</v>
+        <v>0.1573337018489838</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.395837438802118e-06</v>
+        <v>0.02913840673863888</v>
       </c>
       <c r="EH5" t="n">
-        <v>5.879316518075939e-07</v>
+        <v>0.01714110560715199</v>
       </c>
       <c r="EI5" t="n">
-        <v>8.644275339975138e-07</v>
+        <v>0.1209401115775108</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.541031679153093e-06</v>
+        <v>0.1172255426645279</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.804032990548876e-06</v>
+        <v>0.0793517604470253</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.102328822838899e-07</v>
+        <v>0.1236917674541473</v>
       </c>
       <c r="EM5" t="n">
-        <v>6.621495458603022e-07</v>
+        <v>0.1403718292713165</v>
       </c>
       <c r="EN5" t="n">
-        <v>2.003004738071468e-06</v>
+        <v>0.08630815148353577</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.815109271774418e-06</v>
+        <v>0.05694621801376343</v>
       </c>
       <c r="EP5" t="n">
-        <v>4.737039205338078e-07</v>
+        <v>0.2666414380073547</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2.409280796200619e-06</v>
+        <v>0.02226405218243599</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.734377747197868e-06</v>
+        <v>0.02555201947689056</v>
       </c>
       <c r="ES5" t="n">
-        <v>4.362733307061717e-06</v>
+        <v>0.1701973378658295</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.402974874054053e-07</v>
+        <v>0.04741469025611877</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.886604991341301e-06</v>
+        <v>0.02177554741501808</v>
       </c>
       <c r="EV5" t="n">
-        <v>1.766980631145998e-06</v>
+        <v>0.1068791002035141</v>
       </c>
       <c r="EW5" t="n">
-        <v>3.099689593000221e-06</v>
+        <v>0.03361441195011139</v>
       </c>
       <c r="EX5" t="n">
-        <v>6.615579195567989e-07</v>
+        <v>0.04509728774428368</v>
       </c>
       <c r="EY5" t="n">
-        <v>3.232110259432375e-07</v>
+        <v>0.1666128784418106</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.942668283547391e-07</v>
+        <v>0.09066347777843475</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.693399553914787e-07</v>
+        <v>0.07881546020507812</v>
       </c>
       <c r="FB5" t="n">
-        <v>8.269086038126261e-07</v>
+        <v>0.07652713358402252</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.336916852778813e-06</v>
+        <v>0.06972768902778625</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.239994157411275e-07</v>
+        <v>0.002854913473129272</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.647733597565093e-06</v>
+        <v>0.09212818741798401</v>
       </c>
       <c r="FF5" t="n">
-        <v>1.91541016647534e-06</v>
+        <v>0.01824617199599743</v>
       </c>
       <c r="FG5" t="n">
-        <v>3.146704443679482e-07</v>
+        <v>0.05765008553862572</v>
       </c>
       <c r="FH5" t="n">
-        <v>5.678970182998455e-07</v>
+        <v>0.1104877218604088</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.644360054342542e-06</v>
+        <v>0.05433511734008789</v>
       </c>
       <c r="FJ5" t="n">
-        <v>2.614590584926191e-06</v>
+        <v>0.2568133473396301</v>
       </c>
       <c r="FK5" t="n">
-        <v>2.540700961617404e-06</v>
+        <v>0.2322685569524765</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.033693706631311e-06</v>
+        <v>0.08874413371086121</v>
       </c>
       <c r="FM5" t="n">
-        <v>9.765011554918601e-07</v>
+        <v>0.2223994433879852</v>
       </c>
       <c r="FN5" t="n">
-        <v>2.268732487209491e-06</v>
+        <v>0.139289602637291</v>
       </c>
       <c r="FO5" t="n">
-        <v>3.113971160928486e-07</v>
+        <v>0.04322400689125061</v>
       </c>
       <c r="FP5" t="n">
-        <v>3.823988379281218e-07</v>
+        <v>0.07366014271974564</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.40651229685318e-06</v>
+        <v>0.3173390328884125</v>
       </c>
       <c r="FR5" t="n">
-        <v>1.053167920872511e-06</v>
+        <v>0.08726052194833755</v>
       </c>
       <c r="FS5" t="n">
-        <v>5.528323072212515e-06</v>
+        <v>0.2550525963306427</v>
       </c>
       <c r="FT5" t="n">
-        <v>1.336107970928424e-07</v>
+        <v>0.2200842201709747</v>
       </c>
       <c r="FU5" t="n">
-        <v>4.21280560658488e-07</v>
+        <v>0.09501743316650391</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.147849500033772e-06</v>
+        <v>0.1868745684623718</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.106469310092507e-07</v>
+        <v>0.06960752606391907</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.144353286188561e-06</v>
+        <v>0.01381959021091461</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.784650066838367e-06</v>
+        <v>0.128784105181694</v>
       </c>
       <c r="FZ5" t="n">
-        <v>4.415048806549748e-06</v>
+        <v>0.004971100017428398</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.747818600961182e-08</v>
+        <v>0.0220407247543335</v>
       </c>
       <c r="GB5" t="n">
-        <v>5.830141162732616e-06</v>
+        <v>0.2254305928945541</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.582589559096959e-06</v>
+        <v>0.2759123742580414</v>
       </c>
       <c r="GD5" t="n">
-        <v>1.405542434440576e-06</v>
+        <v>0.1478007733821869</v>
       </c>
       <c r="GE5" t="n">
-        <v>9.882878657663241e-07</v>
+        <v>0.2823810875415802</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.79835603578249e-08</v>
+        <v>0.3293647468090057</v>
       </c>
       <c r="GG5" t="n">
-        <v>2.477813950463315e-06</v>
+        <v>0.06166712939739227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.1113482117652893</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.095231890678406</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.06800443679094315</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6454578042030334</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3061586320400238</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.1995925754308701</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1813975125551224</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.01460087299346924</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.06188017129898071</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.1351926028728485</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.8725295662879944</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.002879224251955748</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.6028589606285095</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.3929459452629089</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.2310909330844879</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.1119096279144287</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.1771247833967209</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.08586852252483368</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.03394445404410362</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1447838246822357</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.03776326775550842</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.0247910562902689</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.0243854895234108</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.1594122350215912</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.1723713427782059</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.01542048528790474</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.1225583925843239</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.08744996041059494</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1506492644548416</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.004016140475869179</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.01014899741858244</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.04339594766497612</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.1106496453285217</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.1596170514822006</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>0.0245371013879776</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>0.03599731624126434</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>0.04752424359321594</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1449525356292725</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>0.00288823526352644</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>0.003672436811029911</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>0.0485750176012516</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.05142317712306976</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.07710245251655579</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>0.1249107867479324</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>0.08516031503677368</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>0.01724411174654961</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.6810722947120667</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>0.02070554718375206</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.112443819642067</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>0.04408381879329681</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>0.027070676907897</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>0.03110198676586151</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>0.1660894453525543</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>0.09731458127498627</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>0.003798365592956543</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.1507467329502106</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>0.1445741504430771</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>0.1194662004709244</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>0.4079165756702423</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>0.02673979103565216</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>0.2247103750705719</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>0.1695616841316223</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>0.06488747149705887</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>0.1039906144142151</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.05462365970015526</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>0.01869426108896732</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.0004974731709808111</v>
       </c>
       <c r="BP6" t="n">
-        <v>0</v>
+        <v>0.002090525347739458</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.1030349433422089</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>0.09168163686990738</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>0.1097195595502853</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>0.07825633883476257</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>0.03011143766343594</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.3871001303195953</v>
       </c>
       <c r="BW6" t="n">
-        <v>0</v>
+        <v>0.07621794193983078</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.06469081342220306</v>
       </c>
       <c r="BY6" t="n">
-        <v>0</v>
+        <v>0.0138129498809576</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.06067545339465141</v>
       </c>
       <c r="CA6" t="n">
-        <v>0</v>
+        <v>0.05256615579128265</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>0.02593953907489777</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>0.0969274491071701</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>0.02534619532525539</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>0.1711404621601105</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>0.04848719388246536</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.09912188351154327</v>
       </c>
       <c r="CH6" t="n">
-        <v>0</v>
+        <v>0.04699857532978058</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.06316830217838287</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>0.08170430362224579</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>0.01518448628485203</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>0.02828076481819153</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>0.1522742360830307</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.008481196127831936</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
+        <v>0.001436267979443073</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>0.1679067611694336</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0</v>
+        <v>0.1197488978505135</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>0.1254556775093079</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>0.1258431673049927</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>0.1822478771209717</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>0.01476594619452953</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>0.02437560819089413</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>0.1785843372344971</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>0.07121844589710236</v>
       </c>
       <c r="CY6" t="n">
-        <v>0</v>
+        <v>0.1293626576662064</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>0.04930347576737404</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.08807365596294403</v>
       </c>
       <c r="DB6" t="n">
-        <v>0</v>
+        <v>0.08128294348716736</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>0.02150479331612587</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>0.003180030733346939</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>0.02706868946552277</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.168300673365593</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>0.01847075112164021</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.3719161152839661</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>0.1867530643939972</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.09015087783336639</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>0.1035215109586716</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>0.1473397016525269</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>0.02611979469656944</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>0.03727630153298378</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>0.09651459008455276</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>0.04657551273703575</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>0.07393741607666016</v>
       </c>
       <c r="DR6" t="n">
-        <v>0</v>
+        <v>0.124818466603756</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.007110543549060822</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>0.05633092299103737</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>0.01705209910869598</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>0.03562036156654358</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>0.04852740839123726</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.002673404291272163</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>0.1267382055521011</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>0.02469880320131779</v>
       </c>
       <c r="EA6" t="n">
-        <v>0</v>
+        <v>0.1179514527320862</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.02749589458107948</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>0.02499443478882313</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>0.06248727068305016</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>0.003531109541654587</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>0.009426664561033249</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>0.1469501107931137</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>0.04371432214975357</v>
       </c>
       <c r="EI6" t="n">
-        <v>0</v>
+        <v>0.08284732699394226</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0</v>
+        <v>0.1598118543624878</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.01085148006677628</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>0.1154056042432785</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>0.05150067061185837</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>0.03079402446746826</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>0.01913832686841488</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>0.1473867446184158</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>0.1187180206179619</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>0.1036766618490219</v>
       </c>
       <c r="ES6" t="n">
-        <v>0</v>
+        <v>0.1403514295816422</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.204549103975296</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>0.08233866095542908</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
+        <v>0.01776434853672981</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>0.002730106934905052</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>0.004445435479283333</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.186440497636795</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>0.04049859195947647</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.1233251318335533</v>
       </c>
       <c r="FB6" t="n">
-        <v>0</v>
+        <v>0.04454239830374718</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.08923529833555222</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>0.09239993244409561</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>0.01784356497228146</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>0.03017788380384445</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>0.0137175191193819</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>0.09380528330802917</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>0.04277577623724937</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>0.1076422482728958</v>
       </c>
       <c r="FK6" t="n">
-        <v>0</v>
+        <v>0.06978078931570053</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.03912573680281639</v>
       </c>
       <c r="FM6" t="n">
-        <v>0</v>
+        <v>0.0423041395843029</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>0.02246911823749542</v>
       </c>
       <c r="FO6" t="n">
-        <v>0</v>
+        <v>0.07277674973011017</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>0.0595298558473587</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.08384273201227188</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>0.08870717138051987</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.01006658375263214</v>
       </c>
       <c r="FT6" t="n">
-        <v>0</v>
+        <v>0.03257647901773453</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.02851275727152824</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>0.0836508721113205</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>0.1313945651054382</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>0.1020302698016167</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>0.09625598043203354</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.02664508298039436</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>0.03526414930820465</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>0.03641732782125473</v>
       </c>
       <c r="GC6" t="n">
-        <v>0</v>
+        <v>0.07962102442979813</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.06925023347139359</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>0.3570533990859985</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>0.007797360420227051</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>0.02661538869142532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.002797009889036417</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09571485221385956</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001752968761138618</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02503354288637638</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01999366655945778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06185952946543694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.007390493061393499</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01295948028564453</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.002418476855382323</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01031496189534664</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.07659544795751572</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002489184262230992</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03909167647361755</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01488268841058016</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.06191537529230118</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.008324014022946358</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.005951801314949989</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.01401769928634167</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.004702678881585598</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.01637611351907253</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.004207960795611143</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.008473510853946209</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0008178348653018475</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01382341329008341</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.006076560821384192</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.002202778123319149</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.003512123599648476</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.005177415907382965</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.009863180108368397</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001164495362900198</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0003643921809270978</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.003175567835569382</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.006434996612370014</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.005653864704072475</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.004818566143512726</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.007554545532912016</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.004606243222951889</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.006979911122471094</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.003745442721992731</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.004054671619087458</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.005527289118617773</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.01133279781788588</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>5.116395186632872e-05</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.003574694972485304</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.01044792681932449</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.008810568600893021</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.06395534425973892</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.002784874755889177</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.006329371128231287</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0128356758505106</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.03491751849651337</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.001871904823929071</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.008049137890338898</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.007518841419368982</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.003371120430529118</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.02155201509594917</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.01068427320569754</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.008213956840336323</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.01780402474105358</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.021733608096838</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.005425821524113417</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.002988135907799006</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.004068126901984215</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.003384669311344624</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.003073330037295818</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.003030032385140657</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.009384585544466972</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.005786221474409103</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.0001623267307877541</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.000376479234546423</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.008913308382034302</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.0002252093981951475</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.009768526069819927</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.03436671569943428</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.003203649073839188</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.0008358745835721493</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.004015917424112558</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.0143305417150259</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.005911519285291433</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.003942728973925114</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.00030354387126863</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.004145339131355286</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.01599486544728279</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.004309189040213823</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.005988424643874168</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.003297906136140227</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.009471531957387924</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.002668218454346061</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.0009746425785124302</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0003135311126243323</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.01346215233206749</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.01203803811222315</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1.456734025850892e-06</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.009821323677897453</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.0004045513924211264</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.002684739883989096</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.006910447031259537</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.006678131874650717</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.009607506915926933</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.002401556819677353</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.01346877217292786</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.006086469162255526</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.00823697168380022</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.001589609310030937</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.01290266867727041</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.001221237238496542</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.003959469497203827</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.002276130951941013</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.004585922230035067</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.007324631325900555</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.003518593963235617</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.01248852349817753</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.01600227132439613</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.02527616918087006</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.006029008887708187</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.0146886333823204</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.01146197412163019</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.0002258616732433438</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.006123104132711887</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.007897131145000458</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.0114752259105444</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.003078042762354016</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.002520757261663675</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.003977485466748476</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.001059410395100713</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.007911808788776398</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.004912112839519978</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.006509478203952312</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.008202655240893364</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.003958383575081825</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.001577933318912983</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.003087029792368412</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.002989830449223518</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.009012095630168915</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0.004680910613387823</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.002755505964159966</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.01047730073332787</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.001211861148476601</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.005157495848834515</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.006291210185736418</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.01433024927973747</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.001958056353032589</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.006952023599296808</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.003741525812074542</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.000306592759443447</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.007969005033373833</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.004972456023097038</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.01027871109545231</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.01103127934038639</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.01619677618145943</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.00722257187590003</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0.006169636733829975</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0.006764632649719715</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.002999272430315614</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0.01366503164172173</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0.002313306322321296</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.004591917153447866</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.001254887785762548</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0.01059034466743469</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>3.534711140673608e-05</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0.0003553929273039103</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0.001245854306034744</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0.001556385424919426</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0.006606640759855509</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0.007604362443089485</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0.01379187311977148</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0.006499324925243855</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0.007398007437586784</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0.001172746066004038</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0.001591410953551531</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0.006765551865100861</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0.003344160271808505</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0.04135663062334061</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0.001343946787528694</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0.01769636571407318</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0.0004674186930060387</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0.007040631026029587</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0.001606010948307812</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0.0120046166703105</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0.005551587790250778</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0.007233138661831617</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0.007243790198117495</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0.001286532147787511</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0.008994601666927338</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0.03780226409435272</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0.01418584957718849</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0.0187055915594101</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0.006221191957592964</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0.004648556932806969</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.003330378793179989</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09375151246786118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005211139563471079</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06487380713224411</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03415476530790329</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01689414493739605</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.005062862299382687</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.004150971304625273</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003567105857655406</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000856109312735498</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.07584302872419357</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.001063371310010552</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.03812723234295845</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02898566052317619</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01695765741169453</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.005709740333259106</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.009243421256542206</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.009684005752205849</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.002249743090942502</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01404185872524977</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.002199995331466198</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0007279070559889078</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0007513042073696852</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01659606955945492</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01716757193207741</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.005736536346375942</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.004411484580487013</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01102415286004543</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01079595740884542</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.583838067948818e-05</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.00341159338131547</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.01663211546838284</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.003436818718910217</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0008086021989583969</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.001553260954096913</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.004294097889214754</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.002275583334267139</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01371095608919859</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.002719904063269496</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.002713133580982685</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.005000887904316187</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.008627868257462978</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0003174373414367437</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.00118412496522069</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.00978283304721117</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0136527344584465</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.05917693674564362</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.001158090075477958</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.03117125667631626</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.007656781934201717</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.00408907700330019</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.01708135381340981</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.01166451536118984</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.01009021699428558</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.001397700048983097</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.01644325442612171</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.007300912402570248</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.005045157857239246</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.02558189071714878</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.002259765984490514</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.007842293940484524</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.005349279381334782</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.007597428280860186</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.009743834845721722</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.004072557669132948</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.002607465256005526</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.0003270457964390516</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.005000816658139229</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.005678550340235233</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.001199579797685146</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.004195915535092354</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.002109430031850934</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.009228836745023727</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.03166471421718597</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.008067550137639046</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.01247831992805004</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.006042639259248972</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.007357730995863676</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.0008650778327137232</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.01010077819228172</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.008152102120220661</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.001855816692113876</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.01319824904203415</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.002299024490639567</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.008220759220421314</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.002457953756675124</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.003253310918807983</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.005156891886144876</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.0001928682904690504</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.001181801082566381</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.01340728811919689</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.0005740635097026825</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.001780074671842158</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.0118150981143117</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.01669987849891186</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.004554281011223793</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.01147179398685694</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.02733912877738476</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.005317148752510548</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.0009608865948393941</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.01390662230551243</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.003640991868451238</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.01226869970560074</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.003738552099093795</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0.008800311014056206</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0.004351003095507622</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.0002381107769906521</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.001069810008630157</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.00497167743742466</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.02323515713214874</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.001521081547252834</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.03461992740631104</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.00717084389179945</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.004243490286171436</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.007978511974215508</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.008927218616008759</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.002442787168547511</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.006055024452507496</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.01026446092873812</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.005558821372687817</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.008343187160789967</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.001294670626521111</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0.0005306957755237818</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.0005702623166143894</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0.001063809730112553</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0.003418499371036887</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0.0006571093108505011</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0.003035537898540497</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0.006852020509541035</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0.000241113593801856</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.0002328082919120789</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.005929774604737759</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0.005888558924198151</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0.002068291185423732</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0.001851813169196248</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0.003312557702884078</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0.00964523758739233</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.003288405016064644</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.02359175309538841</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.008512596599757671</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0.005667468998581171</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0.004812305327504873</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0.005396399646997452</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0.001601724070496857</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.005091396626085043</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0.009586361236870289</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.006324457470327616</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.006620788015425205</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0.005461462307721376</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0.01960108801722527</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0.007437812630087137</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0.007108089979737997</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0.005440205801278353</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0.00119273504242301</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0.01359994616359472</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0.001007562852464616</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0.01037297025322914</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0.003246296430006623</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0.008085116744041443</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0.005104064475744963</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0.0001765319611877203</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0.001567102619446814</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0.001026556012220681</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0.003646205412223935</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0.001410581171512604</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0.01151811052113771</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0.001661239424720407</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0.001914142398163676</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0.005987586453557014</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0.00738395843654871</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0.01021627336740494</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0.006277363281697035</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0.0002278895117342472</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0.006126913242042065</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0.005554371979087591</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0.004491095431149006</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>0.006023717112839222</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0.009254846721887589</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0.01060512568801641</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0.006319336127489805</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0.01078684348613024</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0.004821918439120054</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0.001229960005730391</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0.002680140547454357</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0.01596415415406227</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0.01078107394278049</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0.0203354749828577</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0.00251524243503809</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0.001787164714187384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.321229875087738</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.09441050887107849</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3606354892253876</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05954400449991226</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9609566926956177</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1225154101848602</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01682260632514954</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01230856031179428</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1487205922603607</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2334082126617432</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1349155008792877</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.08619767427444458</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.134793683886528</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7486727833747864</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0002699438482522964</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.08482435345649719</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1389646530151367</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1780370324850082</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.01993334107100964</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.12847900390625</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2054896056652069</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.03952820971608162</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02350533939898014</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.07152473926544189</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.007765683345496655</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.006235445849597454</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.07289913296699524</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.03665638715028763</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.03761881962418556</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1552556306123734</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1790376305580139</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.04818057268857956</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.07737866044044495</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.08574283868074417</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.01986705511808395</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1348166167736053</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.03758499026298523</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2387753129005432</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.05406230688095093</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0473710224032402</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.03227898478507996</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.07885420322418213</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.08086036145687103</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.06465604156255722</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1299889385700226</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.2302952855825424</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2987423241138458</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.3715847730636597</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.1654088050127029</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.7735544443130493</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.1013095155358315</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.06707969307899475</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.08136340975761414</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.09833382070064545</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.07377061992883682</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.4150322377681732</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.003862310200929642</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1708314418792725</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.3197038173675537</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.3727091252803802</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.055404894053936</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.2686153948307037</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.08208750188350677</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.2017269432544708</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.2172750383615494</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.2455943524837494</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.3206652402877808</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.01846256479620934</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.3261240720748901</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.2520573735237122</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.006542011629790068</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.2687731087207794</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.05992353707551956</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.07022499293088913</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.05362610518932343</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.1697016656398773</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.3683861792087555</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.1607734262943268</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.01383578777313232</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.1376677751541138</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.2196455448865891</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.04011623561382294</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.04703203588724136</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.07277775555849075</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.1331294327974319</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.09661633521318436</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.03882666304707527</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.01906425505876541</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.05623585730791092</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.01365496031939983</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0756252110004425</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.07512173056602478</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.1373697519302368</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.09513698518276215</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.2347006648778915</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.0668472945690155</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.08722394704818726</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.0710190013051033</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.1851362884044647</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.03016930446028709</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.05034535750746727</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.06333945691585541</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.1001561507582664</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.1178904622793198</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.01479905657470226</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.01272306591272354</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.01589357480406761</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.04566420242190361</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.1861368268728256</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.2162395864725113</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.3129130601882935</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.3207572996616364</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.1855368614196777</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.05429373309016228</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.08063022792339325</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.06488482654094696</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.1076782643795013</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.07931041717529297</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.09976233541965485</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.003612253814935684</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.07109514623880386</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.04536912217736244</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.2098611146211624</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.08705480396747589</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.006519438698887825</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.2633334398269653</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.08036772906780243</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.03263691440224648</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.06198879331350327</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.08167765289545059</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.223377600312233</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.1802107840776443</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.02879675105214119</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.08317319303750992</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0.07719006389379501</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.01983869448304176</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.0963733121752739</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.1747745722532272</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.1305917799472809</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.02929059416055679</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.07673265784978867</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.02581380680203438</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.07299118489027023</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.1919969916343689</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.08972226083278656</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.1444678604602814</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.03593061864376068</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.02215670421719551</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.3334569931030273</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.008580984547734261</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.1885790377855301</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.1006171554327011</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0.2671268284320831</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.01512522250413895</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.022788992151618</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0.04668896645307541</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.08320211619138718</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.1078482493758202</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.1113098561763763</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.01497406698763371</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.01752779446542263</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.05748855322599411</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.08408934623003006</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.2351785004138947</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0.098885178565979</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0.04460552707314491</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.05342437699437141</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0.02480171993374825</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0.1146954894065857</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0.07738928496837616</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0.02973425947129726</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0.2804080545902252</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.1074640154838562</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0.1521814316511154</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0.1491862237453461</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0.3462403416633606</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.1421146392822266</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0.07195335626602173</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0.2041413635015488</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0.04322579130530357</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0.1050997897982597</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.159015417098999</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0.07287886738777161</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0.2139245271682739</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0.05049071460962296</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0.244797557592392</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0.07152631878852844</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0.04593114927411079</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0.03476303815841675</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.001558362622745335</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01457444299012423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00119552353862673</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007996306754648685</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.003510730108246207</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01255436707288027</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.002438461408019066</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.004340299405157566</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001013305969536304</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005668966332450509</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01132075767964125</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0006898075225763023</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00840312521904707</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.003630925435572863</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0121797202154994</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.001546982675790787</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0005711825797334313</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0007181231048889458</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.001786348060704768</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.003626599907875061</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.001181818777695298</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0006876266561448574</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.001010146923363209</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.001778942765668035</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0009696286870166659</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0005951582570560277</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.001835453324019909</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.001387542579323053</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.003756663063541055</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0009187291143462062</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.001353657920844853</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.001772540155798197</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.003098241984844208</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0002338775375392288</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.001828442327678204</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0003032615932170302</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0007204525172710419</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.002477058907970786</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.0007155336788855493</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.001021503005176783</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.001182456966489553</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.003322299104183912</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.000637305376585573</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0005650061648339033</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.001624333905056119</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002384277526289225</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.01033145189285278</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0006976800505071878</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.001135757192969322</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.001665673684328794</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.007198118604719639</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.002126238541677594</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.001586250029504299</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.0002434069756418467</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.0006404254818335176</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.002162903314456344</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.003259427845478058</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0036181949544698</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.006300203967839479</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.005272413603961468</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>6.113993003964424e-05</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.001886541023850441</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.0003915680572390556</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.0001435359590686858</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.000952582573518157</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.001101544476114213</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.001907182158902287</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.0002890643081627786</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.001076248590834439</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.001789130037650466</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.003062796546146274</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.002111780224367976</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.001318699563853443</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.005056397989392281</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.001363338204100728</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.001062698662281036</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.0009896497940644622</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.002240251749753952</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.001335053355433047</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.001608462422154844</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0005301196360960603</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.0003564379003364593</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.002872977405786514</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.0007753389072604477</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.002237807726487517</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.001075873733498156</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.001388575648888946</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.0009878200944513083</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>8.56234400998801e-05</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.0001210129557875916</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.001969982404261827</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.001159341773018241</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.0002560827415436506</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.002328368136659265</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.000218512024730444</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.0004323715111240745</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.002396365161985159</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.004114190582185984</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.0005007541622035205</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.0005448628216981888</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.002383040962740779</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.001002575154416263</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.002636186312884092</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.0006895130500197411</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.00204500206746161</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0.0005804771790280938</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.0003899814910255373</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>8.033977064769715e-05</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.00275598606094718</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.004242443013936281</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.001156223472207785</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.0006198934279382229</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.001102883601561189</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.002364239189773798</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.002859942149370909</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.003257406875491142</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.001572124660015106</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.001208395347930491</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.0005159106804057956</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.001349884434603155</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.002280129818245769</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.001784949097782373</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.000147742495755665</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.0001429342664778233</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>4.632955824490637e-05</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0.001318664755672216</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0.0002653893025126308</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.002886704867705703</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0.001306754653342068</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0.002196326851844788</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.0001355514395982027</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.0009465616894885898</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.0003216548648197204</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.0008555660606361926</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0.0001827209198381752</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.001245842315256596</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.001518979202955961</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.0004871932324022055</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.0009525055065751076</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.0007822695188224316</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.001973370090126991</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.002022967441007495</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0.001644228934310377</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.001237958902493119</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.0006467166822403669</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.0016601876122877</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.001161745516583323</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.002078898716717958</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.000955152849201113</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.002060123719274998</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.0004695531388279051</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0.001500184065662324</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0.0005182258901186287</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.0006764329737052321</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0.002627872629091144</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0.0003114957944490016</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0.001894685439765453</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.0005866753635928035</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.001818087883293629</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0.000809149001725018</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0.0001967594143934548</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0.000282180990325287</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0.0006477648857980967</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0.000640824087895453</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0.001544224680401385</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0.003742903005331755</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>7.752381497994065e-05</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0.00179164600558579</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0.0008458670927211642</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0.003746494185179472</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0.0009190249838866293</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.0005347349215298891</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0.00467609241604805</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0.0001444501976948231</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0.002480356954038143</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0.0009563164203427732</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0.003388183889910579</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0.000913779076654464</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>8.425413398072124e-06</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0.003625052515417337</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0.001851786160841584</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0.0006075685960240662</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>2.171440792153589e-05</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0.0007537802448496222</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0.005014983005821705</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0.004158984404057264</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0.002696500159800053</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0.00166251219343394</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0.00109767890535295</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.03776775300502777</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7492603659629822</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05363300815224648</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3593354523181915</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.08300642669200897</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08537651598453522</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04780459403991699</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04381764680147171</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0178690142929554</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04262366145849228</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6161516308784485</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.006160425022244453</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.372941792011261</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1675617694854736</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.08925234526395798</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.06698688119649887</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.06017487496137619</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.01305081509053707</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.05732918530702591</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.09427081793546677</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.02827133610844612</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.03596869856119156</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01901865378022194</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.09385009109973907</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.05934304744005203</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.07105927169322968</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.03951521590352058</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.08744816482067108</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1312735974788666</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.02837507613003254</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.007803712971508503</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.03995047882199287</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.022776884958148</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.02513732202351093</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.01171006169170141</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0160887036472559</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.02528115920722485</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0737881064414978</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.005556093994528055</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.04689835757017136</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.07160479575395584</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.06053126230835915</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0345468744635582</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.04446471482515335</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.01940457709133625</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.08257324993610382</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.5243962407112122</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.02906031534075737</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.1413000971078873</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.00679414626210928</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.001072421669960022</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.05027950182557106</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.01696594804525375</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.007690169382840395</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.05708260089159012</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.1347556114196777</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.136574998497963</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.02301550284028053</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.1051015555858612</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.08560475707054138</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.1180704012513161</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.03185101971030235</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.01411615591496229</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.08159378170967102</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.09005334228277206</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.07566770911216736</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.02708433754742146</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.1089161932468414</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.08256352692842484</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.0598432756960392</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.02392518892884254</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.02337379939854145</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.0627584382891655</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.2890933752059937</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.0707089751958847</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.09465343505144119</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.07188373059034348</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.07115830481052399</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.001754135359078646</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.02833956107497215</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.02991852723062038</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.003140280954539776</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.1116644814610481</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.04012200236320496</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.04850831627845764</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.02270693704485893</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.02927756123244762</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.0183326993137598</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.01614175736904144</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.02001583948731422</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.1652518510818481</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.08152329176664352</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.01431645639240742</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.1192228198051453</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.190049484372139</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.02783063799142838</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.03673886135220528</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.09325957298278809</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.007481938228011131</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.0118294470012188</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.1140711531043053</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.05345211550593376</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.06787393242120743</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0.03633575886487961</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0.03467593714594841</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0.01209956221282482</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.01524978317320347</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.01290502957999706</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.09406373649835587</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.03949091583490372</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.03106659092009068</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.242096796631813</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.03560671955347061</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.02945588156580925</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.01240940857678652</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.03227972239255905</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.02312000840902328</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.03872972726821899</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.03328788280487061</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.05068967491388321</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.03951987251639366</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.1177041903138161</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0.0311888325959444</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0.02971467189490795</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0.02394554764032364</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0.02240588888525963</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0.04281150549650192</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>0.1569537669420242</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>0.005440502427518368</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>0.06206526234745979</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>0.1137568652629852</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0.03543988615274429</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0.02388850413262844</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0.001572168082930148</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0.001015871297568083</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0.009508209303021431</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>0.0672970786690712</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.02722632512450218</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.073756143450737</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.05517832189798355</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0.03824126720428467</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>0.01414910424500704</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>8.698576129972935e-05</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0.001532382098957896</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0.01802309602499008</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0.09369045495986938</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0.05060051381587982</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.02912797406315804</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0.03799859434366226</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0.138533353805542</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0.019410640001297</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>0.03212764859199524</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>0.0106134470552206</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0.02027257904410362</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>0.1079345643520355</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0.02268317341804504</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0.05567420646548271</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0.01919010654091835</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>0.0393877848982811</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>0.01691223308444023</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>0.004654907621443272</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0.02155571617186069</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0.01284244284033775</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0.07358406484127045</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0.004787653684616089</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>0.04680947214365005</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0.05494653806090355</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>0.008954118005931377</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>0.05730844289064407</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>0.001980917295441031</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>0.01080219820141792</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>3.524436033330858e-05</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>0.149024486541748</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>0.02811199799180031</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>0.06380228698253632</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>0.0976397916674614</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>0.005204906687140465</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>0.01249590329825878</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>0.03909606859087944</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>0.03071598708629608</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>0.07296573370695114</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>0.0546601414680481</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>0.008183062076568604</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>0.02453206107020378</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>0.05820508673787117</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>0.09201287478208542</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>0.1129232943058014</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>0.01454032212495804</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>0.01501580607146025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.0182728860527277</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005774549208581448</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.005644812248647213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01357458718121052</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.007751449476927519</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.006844499614089727</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0001914827735163271</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.003719883039593697</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0002789337886497378</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01665468141436577</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.003337119938805699</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.005775854457169771</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.006456281989812851</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.002836237195879221</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0004812517436221242</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.001328542595729232</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.002886898349970579</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.003598950803279877</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.002588670235127211</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.004517531022429466</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.002068402944132686</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0029266148339957</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.00500650005415082</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.001550692948512733</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.001821268000639975</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.003484454471617937</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0003997578751295805</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0007202595006674528</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.007858233526349068</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.000891013303771615</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.001109056640416384</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.004119849298149347</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5.400262307375669e-05</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.0004141897370573133</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0007796038989908993</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.002698596334084868</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0006328916642814875</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.002017507329583168</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.001758571481332183</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0005660229362547398</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.001938447589054704</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0004385389620438218</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.003066947916522622</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.002466953359544277</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.001019845600239933</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.00954581331461668</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.003628775244578719</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.004706347826868296</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.005181188229471445</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.005753734614700079</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.001659273868426681</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.003018165938556194</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.003976633306592703</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.002457400085404515</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.009855590760707855</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.01046919915825129</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.0002566224429756403</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.0004186657606624067</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.004116630647331476</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.0004424995859153569</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.0008204901241697371</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.005167479626834393</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.004470926243811846</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.001085421303287148</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.003047569887712598</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.0004893093719147146</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.00240284251049161</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.003369684796780348</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.002211874583736062</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.00204667286016047</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.002724901307374239</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.003303081262856722</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.004176717717200518</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.00133385241497308</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.001872778753750026</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.0005030464380979538</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.005079019349068403</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.001010746811516583</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.0008231154642999172</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.003171707037836313</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.001627771183848381</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.003141212509945035</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.00239979662001133</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.000449319340987131</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.0003561570192687213</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.001651079743169248</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.003330252598971128</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0007479229243472219</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.002139716874808073</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.0009538184967823327</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.004818710032850504</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.002901842352002859</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.0006682035746052861</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.007221104111522436</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.00767927709966898</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.002743549412116408</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.003007283667102456</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.008248372003436089</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.001664845971390605</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.002435828559100628</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.002411536406725645</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0.0008969549089670181</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.001080750720575452</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.001613223925232887</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0.002908828668296337</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0.0006341405678540468</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.001533128437586129</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.001103093381971121</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.00260247103869915</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.006559076253324747</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0.005853988230228424</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.006101997569203377</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0.004880893044173717</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.004723790101706982</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.001996012637391686</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.008664809167385101</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.0002285257214680314</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.003300564829260111</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0.0003086546203121543</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0.001352981198579073</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.004114855080842972</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.004375857766717672</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0.001215628231875598</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0.0008162976009771228</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0.002605023793876171</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0.002769694896414876</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0.003412063699215651</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>0.001506087253801525</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>0.001963164890184999</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>0.001254698727279902</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0.0001938675995916128</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0.002009647199884057</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0.002683883300051093</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0.001513277762569487</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0.0007174651836976409</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>0.003796650096774101</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0.004527370911091566</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.003706192132085562</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.004582729656249285</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.001939702779054642</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0.001582410302944481</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0.0007942845113575459</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0.001598227070644498</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>5.477866216097027e-05</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>5.439738743007183e-05</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0.005042318254709244</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0.0005117930704727769</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0.0008729359251447022</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0.001011325977742672</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0.003525417298078537</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0.0004202355339657515</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0.003371583996340632</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0.005141144618391991</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0.002628013957291842</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>0.002599604660645127</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>0.001073592226020992</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0.00107850506901741</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0.001536184921860695</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0.002291071228682995</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>8.646739297546446e-05</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>0.001947916694916785</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0.001151419361121953</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>0.001928413286805153</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0.001798935700207949</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>0.003951140679419041</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0.001193810137920082</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>0.003877104725688696</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>0.002170321764424443</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>0.00392941664904356</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0.001489676302298903</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0.002141415607184172</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0.002658512443304062</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>0.003545660758391023</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>0.005515732802450657</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>0.002707409439608455</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>0.008834459818899632</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>0.003291401779279113</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>0.003048307960852981</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>0.001955892890691757</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>0.0001343294861726463</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>0.00128497276455164</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>0.002291306387633085</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>0.001054439111612737</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>0.001486724358983338</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>0.001804338884539902</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>0.001553412992507219</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>0.005177681799978018</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>0.001901062903925776</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>0.003139721695333719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.002605709480121732</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0142851397395134</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002458501141518354</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.009851936250925064</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003741528140380979</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.004910419229418039</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0009662763332016766</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000717909075319767</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001383407856337726</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005569040775299072</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01084721367806196</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.001886931131593883</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.008064075373113155</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00484004057943821</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.006797028239816427</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.002085235901176929</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.002274186816066504</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0001771459792507812</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0009104876662604511</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.001920026144944131</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.002174531808122993</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.001357390312477946</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.001118546584621072</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.001150691765360534</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.002234593033790588</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.002124049700796604</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.002144288271665573</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.001439095241948962</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0008299475302919745</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0001600701361894608</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.001064272364601493</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0004093321913387626</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0004318948776926845</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.0009917865972965956</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0003018542483914644</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0006795781082473695</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.001724769012071192</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.001934876781888306</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.0009902195306494832</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0003357155947014689</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0004236029053572565</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0001354511477984488</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0005417864886112511</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0003875131951645017</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.001619729329831898</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.00046922528417781</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.009076486341655254</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.0009832610376179218</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.003727140603587031</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.002162228804081678</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.001755254808813334</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.0007595574716106057</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.0004714651149697602</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.003378759371116757</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.002195609267801046</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.003334203036502004</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.004327886272221804</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.002011950826272368</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.003372677601873875</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.003204653272405267</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.001054634223692119</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.002019010484218597</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.0001546010025776923</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.0008716014563106</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.002860189648345113</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.002914095297455788</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.0001545262930449098</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.001168419723398983</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1.265073660761118e-05</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.0008896882645785809</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.0007263484876602888</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.0003598456969484687</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9.568522364133969e-05</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.004278440959751606</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.003198005957528949</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.002396790077909827</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.001043799216859043</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.0004153363406658173</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.001404718845151365</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0003741286927834153</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.002014747587963939</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.000172811618540436</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.002083324361592531</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.00215012882836163</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0008659673621878028</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.0003541135811246932</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.001249795081093907</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0002750717976596206</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>3.733890480361879e-06</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.001327886711806059</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.001959844259545207</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.000534023973159492</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.0004807482182513922</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.002461627358570695</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.001215757802128792</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.001719964435324073</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0.001763964304700494</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>9.503385808784515e-05</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.00113583798520267</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>2.843830770871136e-05</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.001973428064957261</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.002034334000200033</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.001597458962351084</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.0006652268348261714</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0.001334487111307681</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0.000441327691078186</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0.0003151322598569095</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0.0008334211888723075</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.001909990678541362</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.0008432173635810614</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.0003586170496419072</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.005839151330292225</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.003205932443961501</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.0007524585817009211</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0.0008860463858582079</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.0005202338797971606</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.00129605655092746</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>5.949586920905858e-05</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.0007741040899418294</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.001451545627787709</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.0006300400709733367</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.0002629708033055067</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0.000421001052018255</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0.0004739102441817522</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0.0001702257141005248</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0.001600615913048387</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0.0009590331465005875</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0.001682907342910767</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>0.001800391240976751</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>3.733966150321066e-05</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0.0005388456047512591</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.0005028285086154938</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>7.364398334175348e-05</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0.0004613978089764714</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0.001308274455368519</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0.0002886468428187072</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>0.001509477966465056</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.001491503906436265</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.0005708655808120966</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.0002982899895869195</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0.0008611317025497556</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>0.0006967723602429032</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0.0003996615705545992</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0.0003393163497094065</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.0003717012295965105</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.0002505999582353979</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.002120325341820717</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.0006227099802345037</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.001475392375141382</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0.0005848665605299175</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0.0009020014549605548</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0.003389917081221938</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>0.0005583319580182433</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0.0003222797822672874</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>0.001810294925235212</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0.001758353551849723</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>0.00117404677439481</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0.0003634677268564701</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>0.001138202147558331</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>0.0008538754773326218</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>1.344462361885235e-05</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>0.001571976696141064</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>0.001238592900335789</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0.0002264717768412083</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>0.001492760726250708</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>0.002211856422945857</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>0.0001980728266062215</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>0.002777001122012734</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>0.0002560636785347015</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>0.002526889555156231</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>0.002197043271735311</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>0.0005677177105098963</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>0.002565904054790735</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>0.0004926141700707376</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>0.002065290231257677</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>0.00257988041266799</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>4.396590520627797e-05</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>0.001885910634882748</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>0.0018590132240206</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>0.001261936617083848</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>0.003760033287107944</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>0.0008138017146848142</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>0.0003111400874331594</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>0.0009458366548642516</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>0.001942048431374133</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>0.0008360095089301467</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>0.005025906953960657</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>7.488792471121997e-05</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>0.0002166843041777611</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.01895345188677311</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0321052148938179</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.008477815426886082</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02947145141661167</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.008650191128253937</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1320364773273468</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.007412616163492203</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05177680775523186</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03874579817056656</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0150388116016984</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01242013275623322</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.02810645289719105</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0196372214704752</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.005391037091612816</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1160713881254196</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.003692544996738434</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.05081631243228912</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01889975927770138</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.009968951344490051</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.003526269225403666</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01032166182994843</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01433112099766731</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.02310707792639732</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.02496879175305367</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.02250886894762516</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0046436982229352</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01232400722801685</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.001665713265538216</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0302544180303812</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.04610158875584602</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.02135005965828896</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0158371664583683</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.000366282882168889</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0147000290453434</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.02872258238494396</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.02995636127889156</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.006399653851985931</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.01549984514713287</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.005725248716771603</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.03156465291976929</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.006216450594365597</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.01882628723978996</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.00270329019986093</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.006692688912153244</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.006883783265948296</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.02024094760417938</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.03037132881581783</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.01708530262112617</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.05933941900730133</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.067549929022789</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.08914267271757126</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.02062216214835644</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.009403720498085022</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0329512357711792</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.001108624623157084</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.005860066972672939</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.01751957833766937</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.02792186476290226</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.001390037126839161</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.01813196949660778</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.01032297592610121</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.01301062293350697</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.01115261577069759</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.01707221567630768</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.0414288304746151</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.00480446545407176</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.00337828416377306</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.009606022387742996</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.004103025421500206</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.004037346690893173</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.03482639417052269</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.04125414788722992</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.009582914412021637</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.00651249848306179</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.01421188749372959</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.02868510596454144</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.04599880799651146</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.05969564616680145</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.02910887263715267</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.005897636525332928</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.006898771040141582</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.006171509623527527</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.0008121529826894403</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.008778272196650505</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.01072007417678833</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.006342251319438219</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.03297458216547966</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.00493673188611865</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.02076698839664459</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.00230595818720758</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.00814900454133749</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.03026887029409409</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.006569456309080124</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.03614261746406555</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.06016184389591217</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.03472153842449188</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.02330723963677883</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0.01782544702291489</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.0009824011940509081</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.0004932025913149118</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.00405204389244318</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0.01104308385401964</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.003125028219074011</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0.003987533506006002</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0.03060627356171608</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0.007082628551870584</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0.02474220469594002</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0.008852912113070488</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0.005279330536723137</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0.0191190242767334</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0.0007534129545092583</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0.01127015240490437</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0.04986206069588661</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0.01787982881069183</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0.004486715421080589</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0.05388730391860008</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0.02011008746922016</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0.01756319776177406</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.002196004614233971</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0.007818087004125118</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0.01181304454803467</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0.01181171275675297</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0.03265907615423203</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0.02116765081882477</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0.0201275460422039</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0.01102861016988754</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0.008805245161056519</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0.0110915144905448</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0.02315779216587543</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0.00081458012573421</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0.01363365259021521</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0.008775906637310982</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0.006286640651524067</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0.0465480163693428</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0.004195690155029297</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0.005532560870051384</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0.008454750292003155</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0.01252828072756529</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0.01561574637889862</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0.00904625840485096</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>0.011041727848351</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0.00432389322668314</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0.03043559938669205</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0.005649073049426079</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0.00671009486541152</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0.002018792554736137</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0.01624513790011406</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0.02023032680153847</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>0.002319229068234563</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0.003539260011166334</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0.01259259879589081</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0.03480109199881554</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0.02209493331611156</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0.0007234471850097179</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0.008344382978975773</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0.004579414147883654</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0.005242417100816965</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0.002639602404087782</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>0.02337086945772171</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0.003813413204625249</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>0.01833756268024445</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0.006284474395215511</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0.003402062691748142</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0.009721407666802406</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>0.00349302077665925</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0.009415858425199986</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>0.02511117234826088</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0.01924737729132175</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>0.01073587872087955</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0.02036020904779434</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>0.02031736262142658</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0.02648723870515823</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>0.01608001254498959</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>0.0109140407294035</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>0.004053887911140919</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>0.003785176202654839</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>0.02196623757481575</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0.0121654262766242</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>0.01205291971564293</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>0.0525706373155117</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0.0149687584489584</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0.01594571210443974</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0.02626677230000496</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>0.01716885715723038</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>0.04367735236883163</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0.02770794183015823</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>0.01582075655460358</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0.03000539541244507</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>0.02035508118569851</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.678310481016524e-05</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0002327620313735679</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001557680952828377</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.91319616837427e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00046716452925466</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.758116458309814e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002097549440804869</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.811890100128949e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0001716497208690271</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.889081072993577e-06</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0002575239050202072</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.544675903161988e-05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.251840336015448e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0002733352012000978</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.242035407107323e-06</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0001948884455487132</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.413672235794365e-05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.301238317973912e-05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0001042485673679039</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8.023544069146737e-05</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5.969958147034049e-05</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.000154470995767042</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.840249549597502e-05</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.127121691359207e-05</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.41508756618714e-07</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.985711242014077e-05</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.103457493125461e-05</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.548639895394444e-05</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.919879105116706e-05</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.916551501490176e-05</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>9.022417361848056e-05</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.0001545815612189472</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.425583994016051e-05</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.310190994758159e-05</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.745955134741962e-05</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.767574374563992e-05</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>5.42394736839924e-05</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>7.407019438687712e-05</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.603672353667207e-05</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.251232399430592e-05</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.675238495925441e-05</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>6.035289698047563e-05</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6.516125722555444e-06</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1.221997990796808e-05</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4.623237146006431e-06</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.414713086793199e-05</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.189984120894223e-05</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7.566899148514494e-05</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.964642670936882e-05</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.0002740462950896472</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>8.18505504867062e-05</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.463528496969957e-05</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.227497796207899e-05</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>9.364390280097723e-06</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4.279130371287465e-05</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>4.416939191287383e-05</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>1.047699151968118e-05</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5.488874012371525e-05</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.0001835263537941501</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.983341593993828e-05</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>9.174225124297664e-05</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.780354978109244e-05</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6.277695501921698e-05</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>7.6622876804322e-05</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>7.363832264672965e-05</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>3.820890015049372e-06</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>6.254764593904838e-05</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>6.350943294819444e-05</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>4.788006117451005e-05</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>6.320963439065963e-05</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>3.822815415333025e-05</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>4.429116961546242e-05</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>9.766676157596521e-06</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.0001800540776457638</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.0001058309790096246</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>6.720785313518718e-05</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.0001027992693707347</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>8.697052544448525e-05</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>9.841968130785972e-05</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2.157308699679561e-05</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>2.266060982947238e-05</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>2.084495281451382e-05</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>3.284265039837919e-05</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>2.836638122971635e-05</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>2.616810888866894e-06</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>7.455710147041827e-05</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1.155038717115531e-05</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>2.53589496423956e-06</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1.759640326781664e-05</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>4.365686254459433e-05</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>5.356490873964503e-05</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>2.305440648342483e-05</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>1.433036686648848e-05</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>5.710668847314082e-05</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>3.471538093435811e-06</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>3.361913331900723e-05</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>7.106899283826351e-05</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>2.950572343252134e-05</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>8.005494601093233e-05</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>1.757295831339434e-05</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>1.822124431782868e-05</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>1.409766537108226e-05</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>2.612469870655332e-06</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>5.570448047365062e-05</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>4.072357842233032e-05</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>5.927977326791734e-06</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>8.001680726010818e-06</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>3.443686728132889e-05</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>8.439335942966864e-06</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>2.65686812781496e-05</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>5.54714206373319e-05</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0.0001259973214473575</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>1.501210408605402e-05</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0.0001302672171732411</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0.0001078378045349382</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>4.741735028801486e-05</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>3.271607420174405e-05</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>5.604589387075976e-05</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0.0001159446983365342</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>4.642009662347846e-05</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>4.983469989383593e-05</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.0001168610469903797</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>3.358992398716509e-05</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>3.006463884958066e-05</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>6.027958443155512e-05</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>3.046384517801926e-05</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>4.201014235150069e-05</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>1.350549700873671e-05</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>7.393224950646982e-05</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>6.421008947654627e-06</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>4.776952664542478e-06</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>4.103645187569782e-05</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>4.329413786763325e-05</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>1.428727136953967e-05</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>3.140066837659106e-05</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>4.405725121614523e-06</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>2.80666135950014e-05</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>8.723141945665702e-06</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>6.816005770815536e-05</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>1.663085276959464e-05</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>4.146636001678417e-06</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>2.792989471345209e-05</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>1.071526185114635e-05</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>5.59898471692577e-05</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>3.686821582959965e-05</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>1.939151479746215e-05</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>3.35574040946085e-05</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>2.277472958667204e-05</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>3.645330070867203e-05</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>8.018781954888254e-05</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>2.657434924913105e-05</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>3.904931509168819e-05</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>2.009783020184841e-05</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>1.730790609144606e-05</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>1.876673195511103e-05</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>1.890054045361467e-05</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>1.913012965815142e-06</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>5.446635987027548e-05</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>2.693697570066433e-05</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>9.037924428412225e-06</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>5.184581823414192e-06</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>3.580228076316416e-05</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>2.874188430723734e-05</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>3.660606580524473e-06</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>2.332100848434493e-05</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>4.68464131699875e-05</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>6.003347880323417e-05</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>1.795784919522703e-05</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>6.597202445846051e-05</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>3.07759182760492e-05</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>4.421557605382986e-06</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>9.895137736748438e-06</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>1.848978354246356e-05</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>1.38437080750009e-05</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>6.114788993727416e-05</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>9.866348409559578e-05</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>1.050369064614642e-06</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>9.687493729870766e-05</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>0.00010805026977323</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>1.592005901329685e-05</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>1.777455327101052e-05</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>2.146605947928037e-05</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>6.616870814468712e-05</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>6.096088327467442e-07</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>0.0001301907323068008</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>6.180183117976412e-05</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>4.191130574326962e-05</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>4.796597568201832e-05</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>3.031857704627328e-05</v>
       </c>
     </row>
   </sheetData>
